--- a/biology/Médecine/Processus_condylien_de_la_mandibule/Processus_condylien_de_la_mandibule.xlsx
+++ b/biology/Médecine/Processus_condylien_de_la_mandibule/Processus_condylien_de_la_mandibule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus condylien de la mandibule (ou processus condylaire) est une saillie osseuse montante située sur la partie postérieure du bord supérieur de la branche de la mandibule.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus condylien est séparé à l'avant du processus coronoïde par l'incisure mandibulaire.
 Sa partie supérieure présente le condyle de la mandibule.
@@ -544,7 +558,9 @@
           <t>Condyle de la mandibule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie la plus supérieure du processus condylien présente un condyle convexe d'avant en arrière et latéralement : le condyle de la mandibule ou tête de la mandibule.
 C'est une surface recouverte de tissu fibreux qui s'articule avec un ménisque : le disque articulaire temporomandibulaire de l'articulation temporo-mandibulaire.
@@ -580,7 +596,9 @@
           <t>Col de la mandibule</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le col de la mandibule (ou col du condyle) s'élève à partir de la partie postérieure de la branche montante de la mandibule. Il est aplati d'avant en arrière et renforcé par des crêtes qui descendent de la partie antérieure et des côtés du condyle.
 Sa face postérieure est convexe.
@@ -613,7 +631,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Parce que le disque articulaire empêche la mandibule de se déplacer vers l'arrière, le col condylien est souvent sujet à une fracture lorsque la mâchoire subit un coup.
 </t>
